--- a/Dashboard/WebContent/Data/Training Kit.xlsx
+++ b/Dashboard/WebContent/Data/Training Kit.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Basic" sheetId="2" r:id="rId2"/>
+    <sheet name="Explained" sheetId="3" r:id="rId3"/>
+    <sheet name="Collection" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
   <si>
     <t>S.No.</t>
   </si>
@@ -67,6 +69,9 @@
   </si>
   <si>
     <t>Software SRS</t>
+  </si>
+  <si>
+    <t>Project Assignment</t>
   </si>
   <si>
     <t>Task 1</t>
@@ -118,7 +123,7 @@
     <t>Create Database structure</t>
   </si>
   <si>
-    <t>Create Database using Mysql.</t>
+    <t>Create Database,SP using Mysql.</t>
   </si>
   <si>
     <t>How to maintain back up of mysql server data with DR Conditions.</t>
@@ -181,30 +186,33 @@
     <t>With Database connectivity.</t>
   </si>
   <si>
+    <t>With Data/File Upload/Scriptlet Free code analysis.</t>
+  </si>
+  <si>
+    <t>Open File stored in DB</t>
+  </si>
+  <si>
+    <t>Deploy In Apache Tomcat 7 with two ways(Direct deployment &amp; Site Deployment)</t>
+  </si>
+  <si>
+    <t>Task 6</t>
+  </si>
+  <si>
+    <t>Study Java MVC Information</t>
+  </si>
+  <si>
+    <t>What is MVC</t>
+  </si>
+  <si>
+    <t>What is use and advantage of Model,View &amp; Controller</t>
+  </si>
+  <si>
+    <t>Create MVC Structure.</t>
+  </si>
+  <si>
     <t>With Data/File Upload</t>
   </si>
   <si>
-    <t>Open File stored in DB</t>
-  </si>
-  <si>
-    <t>Deploy In Apache Tomcat 7 with two ways(Direct deployment &amp; Site Deployment)</t>
-  </si>
-  <si>
-    <t>Task 6</t>
-  </si>
-  <si>
-    <t>Study Java MVC Information</t>
-  </si>
-  <si>
-    <t>What is MVC</t>
-  </si>
-  <si>
-    <t>What is use and advantage of Model,View &amp; Controller</t>
-  </si>
-  <si>
-    <t>Create MVC Structure.</t>
-  </si>
-  <si>
     <t>Deploy In Apache Tomcat 7</t>
   </si>
   <si>
@@ -266,6 +274,552 @@
   </si>
   <si>
     <t>Go Live..</t>
+  </si>
+  <si>
+    <t>Core Java Content</t>
+  </si>
+  <si>
+    <t>Adv JAVA TRAINING</t>
+  </si>
+  <si>
+    <t>INTRODUCTION</t>
+  </si>
+  <si>
+    <t>Historical Perspective of Java</t>
+  </si>
+  <si>
+    <t>JDBC Fundamentals</t>
+  </si>
+  <si>
+    <t>Introduction of JDBC API</t>
+  </si>
+  <si>
+    <t>Java Buzzwords</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JDBC Drivers  : Type-1, Type-2, Type-3, Type-4</t>
+  </si>
+  <si>
+    <t>class &amp; object</t>
+  </si>
+  <si>
+    <t>JDBC Architecture</t>
+  </si>
+  <si>
+    <t>Installing JDK Sofware</t>
+  </si>
+  <si>
+    <t>Steps to write JDBC Programs</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>CRUD Operations using Statement, PreparedStatement, and CallableStatement</t>
+  </si>
+  <si>
+    <t>Identifiers</t>
+  </si>
+  <si>
+    <t>ResultSet, Scrollable and Updatable ResultSet types</t>
+  </si>
+  <si>
+    <t>Datatypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Handling SQL Exceptions and Proper Cleanup  </t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>ResultSetMetaData and DataBaseMetaData</t>
+  </si>
+  <si>
+    <t>main method</t>
+  </si>
+  <si>
+    <t>Primary Key Generators</t>
+  </si>
+  <si>
+    <t>command line arguments</t>
+  </si>
+  <si>
+    <t>Reading connection properties from .properties file</t>
+  </si>
+  <si>
+    <t>Stored Procedures</t>
+  </si>
+  <si>
+    <t>OPERATORS &amp; CONTROL FLOW</t>
+  </si>
+  <si>
+    <t>Arithmetic Operators</t>
+  </si>
+  <si>
+    <t>Database Functions</t>
+  </si>
+  <si>
+    <t>Increment or Decrement Operator</t>
+  </si>
+  <si>
+    <t>Relational Operators</t>
+  </si>
+  <si>
+    <t>Advanced JDBC</t>
+  </si>
+  <si>
+    <t>Batch Operations</t>
+  </si>
+  <si>
+    <t>Equality Operators</t>
+  </si>
+  <si>
+    <t>RowSet, JdbcRowset, CachedRowSet</t>
+  </si>
+  <si>
+    <t>Logical operators</t>
+  </si>
+  <si>
+    <t>Connection Pooling (using javax.sql.DataSource interface)</t>
+  </si>
+  <si>
+    <t>Short-circuit(or conditional) operators</t>
+  </si>
+  <si>
+    <t>Transaction Management</t>
+  </si>
+  <si>
+    <t>Ternary operator</t>
+  </si>
+  <si>
+    <t>Isolation Levels</t>
+  </si>
+  <si>
+    <t>Assignment Operators</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>Type Casting</t>
+  </si>
+  <si>
+    <t>CLOB</t>
+  </si>
+  <si>
+    <t>Selection Statements</t>
+  </si>
+  <si>
+    <t>Iteration Statements</t>
+  </si>
+  <si>
+    <t>JDBC Project</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1) DAO Design Pattern
+       2) DataSource (Connection Pooling)
+       3) RowSet
+       4) Primary Key Generator (Sequence)
+       5) Externalizing connection properties
+       6) Logging API
+       7) Project Structure</t>
+    </r>
+  </si>
+  <si>
+    <t>Transfer Statements</t>
+  </si>
+  <si>
+    <t>Servlets</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>ACESS CONTROL</t>
+  </si>
+  <si>
+    <t>Package declaration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Http Protocol</t>
+  </si>
+  <si>
+    <t>Accessibility modifiers (private, default, protected, public)</t>
+  </si>
+  <si>
+    <t>Servlets API (javax.servlet and javax.servlet.http packages)</t>
+  </si>
+  <si>
+    <t>import statements</t>
+  </si>
+  <si>
+    <t>Server Installation and Deployment</t>
+  </si>
+  <si>
+    <t>Java Programming Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Servlet Lifecycle: init(), service(), destroy() </t>
+  </si>
+  <si>
+    <t>Generate JAVA API Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GenericServlet, ServletRequest, and ServletResponse </t>
+  </si>
+  <si>
+    <t>Form processing using GenericServlet class</t>
+  </si>
+  <si>
+    <t>OBJECT ORIENTED PROGRAMMING</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>HttpServlet,  HttpServletRequest, HttpServletResponse</t>
+  </si>
+  <si>
+    <t>Inheritance (IS-A Relationship)</t>
+  </si>
+  <si>
+    <t>Config and Context Initialization parameters</t>
+  </si>
+  <si>
+    <t>Send Redirect Mechanism</t>
+  </si>
+  <si>
+    <t>Method Signature</t>
+  </si>
+  <si>
+    <t>RequestDispatches: Include and Forward mechanisms</t>
+  </si>
+  <si>
+    <t>Overloading</t>
+  </si>
+  <si>
+    <t>Servlet Scopes and Attributes</t>
+  </si>
+  <si>
+    <t>Overriding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session Management </t>
+  </si>
+  <si>
+    <t>Constructors</t>
+  </si>
+  <si>
+    <t>this or super</t>
+  </si>
+  <si>
+    <t>JavaServer Pages  (JSPs)</t>
+  </si>
+  <si>
+    <t>Final &amp; static</t>
+  </si>
+  <si>
+    <t>JSP Model1 Architecture</t>
+  </si>
+  <si>
+    <t>Abstract class and Interface</t>
+  </si>
+  <si>
+    <t>JSP Model2 Architecture</t>
+  </si>
+  <si>
+    <t>Marker Interfaces</t>
+  </si>
+  <si>
+    <t>JSP Life-Cycle</t>
+  </si>
+  <si>
+    <t>JSP Tags</t>
+  </si>
+  <si>
+    <t>EXCEPTIONS</t>
+  </si>
+  <si>
+    <t>Implicit Objects</t>
+  </si>
+  <si>
+    <t>Exception Hierarchy</t>
+  </si>
+  <si>
+    <t>JSP Scopes</t>
+  </si>
+  <si>
+    <t>Difference between Exception &amp; Error</t>
+  </si>
+  <si>
+    <t>Exception Handling in JSP</t>
+  </si>
+  <si>
+    <t>Exception handling using : try-catch-finally</t>
+  </si>
+  <si>
+    <t>Action tags</t>
+  </si>
+  <si>
+    <t>Methods to display error information.</t>
+  </si>
+  <si>
+    <t>Custom Tags</t>
+  </si>
+  <si>
+    <t>Checked and Unchecked exceptions</t>
+  </si>
+  <si>
+    <t>Multiple catch blocks.</t>
+  </si>
+  <si>
+    <t>Nested try blocks</t>
+  </si>
+  <si>
+    <t>User defined exceptions (Customized Exceptions)</t>
+  </si>
+  <si>
+    <t>Throw and Throws</t>
+  </si>
+  <si>
+    <t>JAVA.LANG PACKAGE</t>
+  </si>
+  <si>
+    <t>Hierarchy</t>
+  </si>
+  <si>
+    <t>Object class</t>
+  </si>
+  <si>
+    <t>equals() method and hashing mechanishm</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>StringBuffer &amp; StringBuilder(jd1.5)</t>
+  </si>
+  <si>
+    <t>Wrapper classes</t>
+  </si>
+  <si>
+    <t>Autoboxing and Unboxing(jdk1.5)</t>
+  </si>
+  <si>
+    <t>MULTITHREADING</t>
+  </si>
+  <si>
+    <t>Defining, Instantiating, and Starting threads by</t>
+  </si>
+  <si>
+    <t>Extending Thread class
+                       implementing Runnable interface</t>
+  </si>
+  <si>
+    <t>Implementing Runnable&lt;&lt;interface&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Main thread</t>
+  </si>
+  <si>
+    <t>Thread Priorities</t>
+  </si>
+  <si>
+    <t>Thread names</t>
+  </si>
+  <si>
+    <t>Sleep(), Join()</t>
+  </si>
+  <si>
+    <t>Daemon threads</t>
+  </si>
+  <si>
+    <t>Synchronization</t>
+  </si>
+  <si>
+    <t>Interthread communication (wait(), notify() and notifyAll())</t>
+  </si>
+  <si>
+    <t>Deadlock</t>
+  </si>
+  <si>
+    <t>IO STREAMS &amp; SERIALIZATION</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>InputStream</t>
+  </si>
+  <si>
+    <t>OutputStream</t>
+  </si>
+  <si>
+    <t>Reader</t>
+  </si>
+  <si>
+    <t>Writer</t>
+  </si>
+  <si>
+    <t>ByteArray and Character Array Streams</t>
+  </si>
+  <si>
+    <t>Read From Keyboard</t>
+  </si>
+  <si>
+    <t>Primitive Serialization and Deserialization</t>
+  </si>
+  <si>
+    <t>Object Serialization and Deserialization</t>
+  </si>
+  <si>
+    <t>COLLECTIONS &amp; GENERICS</t>
+  </si>
+  <si>
+    <t>Legacy classe (JDK.10)</t>
+  </si>
+  <si>
+    <t>Collection Framework (JDK1.2)</t>
+  </si>
+  <si>
+    <t>Generic Types (JDK1.5)</t>
+  </si>
+  <si>
+    <t>Collection&lt;&lt;interface&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Collections&lt;&lt;class&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Collection properties and Operations</t>
+  </si>
+  <si>
+    <t>Collection, List, Set, Map interfaces</t>
+  </si>
+  <si>
+    <t>Enumeration, Iterator, ListIterator</t>
+  </si>
+  <si>
+    <t>Sorting collection elements</t>
+  </si>
+  <si>
+    <t>TimeComplexity</t>
+  </si>
+  <si>
+    <t>Stack, Queue classes, PriorityQueue</t>
+  </si>
+  <si>
+    <t>Set, HashSet, LinkedHashSet, TreeSet</t>
+  </si>
+  <si>
+    <t>Map, Hashtable, HashMap, TreeMap, Properties classes</t>
+  </si>
+  <si>
+    <t>Generic types</t>
+  </si>
+  <si>
+    <t>Collection Framework Analysis</t>
+  </si>
+  <si>
+    <t>Limitations with arrays</t>
+  </si>
+  <si>
+    <t>Differences between collection and arrays</t>
+  </si>
+  <si>
+    <t>Interfaces</t>
+  </si>
+  <si>
+    <t>Collection properties</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>List&lt;&lt;interface&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Hierarchy and Properties</t>
+  </si>
+  <si>
+    <t>ArrayList and LinkedList</t>
+  </si>
+  <si>
+    <t>Vector and Stack</t>
+  </si>
+  <si>
+    <t>Time complexities</t>
+  </si>
+  <si>
+    <t>Comparison among ArrayList, LinkedList, Vector and Stack</t>
+  </si>
+  <si>
+    <t>Iterates collection elements</t>
+  </si>
+  <si>
+    <t>Enumeration&lt;&lt;interface&gt;</t>
+  </si>
+  <si>
+    <t>Iterator&lt;&lt;interface&gt;&gt;</t>
+  </si>
+  <si>
+    <t>ListIterator&lt;&lt;interface&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Enhanced for loop</t>
+  </si>
+  <si>
+    <t>Sorting [2hours]</t>
+  </si>
+  <si>
+    <t>Java.lang.Comparable&lt;&lt;interface&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Java.util.Comparator&lt;&lt;interface&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Set&lt;&lt;interface&gt;&gt;</t>
+  </si>
+  <si>
+    <t>hashCode() and equals() methods</t>
+  </si>
+  <si>
+    <t>HashSet and LinkedHashSet</t>
+  </si>
+  <si>
+    <t>SortedSet&lt;&lt;interface&gt;&gt;</t>
+  </si>
+  <si>
+    <t>NavigableSet&lt;&lt;interface&gt;&gt;</t>
+  </si>
+  <si>
+    <t>TreeSet</t>
+  </si>
+  <si>
+    <t>Comparison among HashSet, LinkedHashSet, and TreeSet</t>
   </si>
 </sst>
 </file>
@@ -278,7 +832,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -287,13 +841,71 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="9"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -318,13 +930,33 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -335,12 +967,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,14 +1001,18 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -396,12 +1026,32 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -430,30 +1080,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -474,17 +1100,73 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,89 +1176,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -921,120 +1612,130 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="28" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="6.42857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.1428571428571" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.2857142857143" style="26" customWidth="1"/>
-    <col min="4" max="16383" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="6.42857142857143" style="25" customWidth="1"/>
+    <col min="2" max="2" width="47.1428571428571" style="26" customWidth="1"/>
+    <col min="3" max="3" width="15.2857142857143" style="49" customWidth="1"/>
+    <col min="4" max="16383" width="9.14285714285714" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="25" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="28">
+      <c r="A2" s="51">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="28">
+      <c r="A3" s="51">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="28">
+      <c r="A4" s="51">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="28">
+      <c r="A5" s="51">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="28">
+      <c r="A6" s="51">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="28">
+      <c r="A7" s="51">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="28">
+      <c r="A8" s="51">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="53" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="28">
+      <c r="A9" s="55">
         <v>8</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="57" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:B2" location="Basic!A1" display="1"/>
     <hyperlink ref="A9:B9" location="Basic!A61" display="8"/>
@@ -1057,507 +1758,507 @@
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="19" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="7.28571428571429" style="2" customWidth="1"/>
-    <col min="2" max="2" width="76.1428571428571" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.42857142857143" style="2" customWidth="1"/>
-    <col min="4" max="16382" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="7.28571428571429" style="26" customWidth="1"/>
+    <col min="2" max="2" width="76.1428571428571" style="27" customWidth="1"/>
+    <col min="3" max="3" width="8.42857142857143" style="26" customWidth="1"/>
+    <col min="4" max="16382" width="9.14285714285714" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="25" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="7">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="7">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="7">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="7">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="7">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="7">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>24</v>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="9">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
+      <c r="B8" s="33" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="11">
+      <c r="A9" s="34">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="s">
+    </row>
+    <row r="11" s="25" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:2">
-      <c r="A12" s="9">
+      <c r="A12" s="32">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>29</v>
+      <c r="B12" s="35" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="11">
+      <c r="A13" s="34">
         <v>2</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>30</v>
+      <c r="B13" s="36" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="11">
+      <c r="A14" s="34">
         <v>3</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>31</v>
+      <c r="B14" s="36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="11">
+      <c r="A15" s="34">
         <v>4</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>32</v>
+      <c r="B15" s="36" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="11">
+      <c r="A16" s="34">
         <v>5</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>33</v>
+      <c r="B16" s="37" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="7">
+      <c r="A17" s="31">
         <v>6</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>34</v>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="29" t="s">
         <v>37</v>
       </c>
+      <c r="C19" s="30" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="9">
+      <c r="A20" s="32">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>38</v>
+      <c r="B20" s="35" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="11">
+      <c r="A21" s="34">
         <v>2</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>39</v>
+      <c r="B21" s="36" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="11">
+      <c r="A22" s="34">
         <v>3</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>40</v>
+      <c r="B22" s="36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="11">
+      <c r="A23" s="34">
         <v>4</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>41</v>
+      <c r="B23" s="36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="29" t="s">
         <v>44</v>
       </c>
+      <c r="C25" s="30" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
-      <c r="A26" s="9">
+      <c r="A26" s="32">
         <v>1</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:2">
+      <c r="A27" s="34">
+        <v>2</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:2">
+      <c r="A28" s="34">
+        <v>3</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29" s="34">
+        <v>4</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:3">
+      <c r="A31" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32" s="32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33" s="34">
+        <v>2</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:2">
+      <c r="A34" s="34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35" s="34">
+        <v>4</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:2">
+      <c r="A36" s="34">
+        <v>5</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:3">
+      <c r="A38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:2">
-      <c r="A27" s="11">
+    <row r="39" customHeight="1" spans="1:2">
+      <c r="A39" s="32">
+        <v>1</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:2">
+      <c r="A40" s="34">
         <v>2</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="11">
+      <c r="B40" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:2">
+      <c r="A41" s="34">
         <v>3</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:2">
-      <c r="A29" s="11">
+      <c r="B41" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:2">
+      <c r="A42" s="34">
         <v>4</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="9">
+      <c r="B42" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:2">
+      <c r="A43" s="34">
+        <v>5</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:2">
+      <c r="A44" s="34">
+        <v>6</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:2">
+      <c r="A45" s="34">
+        <v>7</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:2">
+      <c r="A46" s="34">
+        <v>8</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:3">
+      <c r="A48" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:3">
+      <c r="A49" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:2">
+      <c r="A50" s="34">
         <v>1</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="11">
+      <c r="B50" s="43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:2">
+      <c r="A51" s="34">
         <v>2</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="11">
+      <c r="B51" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:2">
+      <c r="A52" s="34">
         <v>3</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="11">
+      <c r="B52" s="43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:2">
+      <c r="A53" s="34">
         <v>4</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="11">
+      <c r="B53" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:2">
+      <c r="A54" s="34">
         <v>5</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" s="9">
+      <c r="B54" s="43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:2">
+      <c r="A55" s="34">
+        <v>6</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:2">
+      <c r="A56" s="34">
+        <v>7</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:2">
+      <c r="A57" s="34">
+        <v>8</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:2">
+      <c r="A58" s="44">
+        <v>9</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:2">
+      <c r="A59" s="34">
+        <v>10</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:3">
+      <c r="A61" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:2">
+      <c r="A62" s="34">
         <v>1</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:2">
-      <c r="A40" s="11">
+      <c r="B62" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:2">
+      <c r="A63" s="34">
         <v>2</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="11">
+      <c r="B63" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:2">
+      <c r="A64" s="34">
         <v>3</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="11">
-        <v>4</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="11">
-        <v>5</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="11">
-        <v>6</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="11">
-        <v>7</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="11">
-        <v>8</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:3">
-      <c r="A48" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:3">
-      <c r="A49" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:2">
-      <c r="A50" s="11">
-        <v>1</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="11">
-        <v>2</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:2">
-      <c r="A52" s="11">
-        <v>3</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:2">
-      <c r="A53" s="11">
-        <v>4</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:2">
-      <c r="A54" s="11">
-        <v>5</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:2">
-      <c r="A55" s="11">
-        <v>6</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:2">
-      <c r="A56" s="11">
-        <v>7</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:2">
-      <c r="A57" s="11">
-        <v>8</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:2">
-      <c r="A58" s="21">
-        <v>9</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:2">
-      <c r="A59" s="11">
-        <v>10</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:3">
-      <c r="A61" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:2">
-      <c r="A62" s="11">
-        <v>1</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:2">
-      <c r="A63" s="11">
-        <v>2</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:2">
-      <c r="A64" s="11">
-        <v>3</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>81</v>
+      <c r="B64" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:1">
-      <c r="A65" s="1"/>
+      <c r="A65" s="25"/>
     </row>
     <row r="67" ht="31" customHeight="1" spans="1:3">
-      <c r="A67" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
+      <c r="A67" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="47"/>
+      <c r="C67" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1568,4 +2269,1016 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="38.8571428571429" style="4" customWidth="1"/>
+    <col min="2" max="2" width="52.8571428571429" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="4" customWidth="1"/>
+    <col min="4" max="4" width="215.714285714286" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="1" ht="24.75" customHeight="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" s="4" customFormat="1" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="1:4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" spans="1:4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" spans="1:4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" spans="1:4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="1:4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" s="4" customFormat="1" spans="1:4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" spans="1:4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" spans="1:4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="1" spans="1:4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" spans="1:4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="1" spans="1:4">
+      <c r="A21" s="10"/>
+      <c r="B21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="1" spans="1:4">
+      <c r="A22" s="10"/>
+      <c r="B22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" s="4" customFormat="1" ht="110.25" spans="1:4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="15.75" spans="1:4">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:4">
+      <c r="A27" s="10"/>
+      <c r="B27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:4">
+      <c r="A28" s="10"/>
+      <c r="B28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:4">
+      <c r="A29" s="10"/>
+      <c r="B29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:4">
+      <c r="A30" s="10"/>
+      <c r="B30" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1" spans="1:4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" spans="1:4">
+      <c r="A32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" spans="1:4">
+      <c r="A33" s="10"/>
+      <c r="B33" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="1" spans="1:4">
+      <c r="A34" s="10"/>
+      <c r="B34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="1" spans="1:4">
+      <c r="A35" s="10"/>
+      <c r="B35" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="1" spans="1:4">
+      <c r="A36" s="10"/>
+      <c r="B36" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" s="4" customFormat="1" spans="1:4">
+      <c r="A37" s="10"/>
+      <c r="B37" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="1" spans="1:4">
+      <c r="A38" s="10"/>
+      <c r="B38" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" s="4" customFormat="1" spans="1:4">
+      <c r="A39" s="10"/>
+      <c r="B39" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" s="4" customFormat="1" spans="1:4">
+      <c r="A40" s="10"/>
+      <c r="B40" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" s="4" customFormat="1" spans="1:4">
+      <c r="A41" s="10"/>
+      <c r="B41" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="1" spans="1:4">
+      <c r="A42" s="10"/>
+      <c r="B42" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" spans="1:4">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" spans="1:4">
+      <c r="A44" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" spans="1:4">
+      <c r="A45" s="10"/>
+      <c r="B45" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" spans="1:4">
+      <c r="A46" s="10"/>
+      <c r="B46" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="1" spans="1:4">
+      <c r="A47" s="10"/>
+      <c r="B47" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1" spans="1:4">
+      <c r="A48" s="10"/>
+      <c r="B48" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" s="4" customFormat="1" spans="1:2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="1" spans="1:2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="1" spans="1:2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" s="4" customFormat="1" spans="1:2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" s="4" customFormat="1" spans="1:2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" s="4" customFormat="1" spans="1:2">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" s="4" customFormat="1" spans="1:2">
+      <c r="A55" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" s="4" customFormat="1" spans="1:2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" s="4" customFormat="1" spans="1:2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" s="4" customFormat="1" spans="1:2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" s="4" customFormat="1" spans="1:2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" s="4" customFormat="1" spans="1:2">
+      <c r="A60" s="10"/>
+      <c r="B60" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" s="4" customFormat="1" spans="1:2">
+      <c r="A61" s="10"/>
+      <c r="B61" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" s="4" customFormat="1" spans="1:2">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" s="4" customFormat="1" spans="1:2">
+      <c r="A63" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" s="4" customFormat="1" spans="1:2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" s="4" customFormat="1" spans="1:2">
+      <c r="A66" s="10"/>
+      <c r="B66" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" s="4" customFormat="1" spans="1:2">
+      <c r="A67" s="10"/>
+      <c r="B67" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" s="4" customFormat="1" spans="1:2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" s="4" customFormat="1" spans="1:2">
+      <c r="A69" s="10"/>
+      <c r="B69" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" s="4" customFormat="1" spans="1:2">
+      <c r="A70" s="10"/>
+      <c r="B70" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" s="4" customFormat="1" spans="1:2">
+      <c r="A71" s="10"/>
+      <c r="B71" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" s="4" customFormat="1" spans="1:2">
+      <c r="A72" s="10"/>
+      <c r="B72" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" s="4" customFormat="1" spans="1:2">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="1" spans="1:2">
+      <c r="A74" s="10"/>
+      <c r="B74" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" s="4" customFormat="1" spans="1:2">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" s="4" customFormat="1" spans="1:2">
+      <c r="A76" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" s="4" customFormat="1" spans="1:2">
+      <c r="A77" s="10"/>
+      <c r="B77" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" s="4" customFormat="1" spans="1:2">
+      <c r="A78" s="10"/>
+      <c r="B78" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" s="4" customFormat="1" spans="1:2">
+      <c r="A79" s="10"/>
+      <c r="B79" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" s="4" customFormat="1" spans="1:2">
+      <c r="A80" s="10"/>
+      <c r="B80" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" s="4" customFormat="1" spans="1:2">
+      <c r="A81" s="10"/>
+      <c r="B81" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" s="4" customFormat="1" spans="1:2">
+      <c r="A82" s="10"/>
+      <c r="B82" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" s="4" customFormat="1" spans="1:2">
+      <c r="A83" s="10"/>
+      <c r="B83" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" s="4" customFormat="1" spans="1:2">
+      <c r="A84" s="10"/>
+      <c r="B84" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" s="4" customFormat="1" spans="1:2">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+    </row>
+    <row r="86" s="4" customFormat="1" spans="1:2">
+      <c r="A86" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" s="4" customFormat="1" spans="1:2">
+      <c r="A87" s="10"/>
+      <c r="B87" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" s="4" customFormat="1" spans="1:2">
+      <c r="A88" s="10"/>
+      <c r="B88" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" s="4" customFormat="1" spans="1:2">
+      <c r="A89" s="10"/>
+      <c r="B89" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="1:2">
+      <c r="A90" s="10"/>
+      <c r="B90" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" s="4" customFormat="1" spans="1:2">
+      <c r="A91" s="10"/>
+      <c r="B91" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" s="4" customFormat="1" spans="1:2">
+      <c r="A92" s="10"/>
+      <c r="B92" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" s="4" customFormat="1" spans="1:2">
+      <c r="A93" s="10"/>
+      <c r="B93" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" s="4" customFormat="1" spans="1:2">
+      <c r="A94" s="10"/>
+      <c r="B94" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" s="4" customFormat="1" spans="1:2">
+      <c r="A95" s="10"/>
+      <c r="B95" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" s="4" customFormat="1" spans="1:2">
+      <c r="A96" s="10"/>
+      <c r="B96" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" s="4" customFormat="1" spans="1:2">
+      <c r="A97" s="10"/>
+      <c r="B97" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" s="4" customFormat="1" spans="1:2">
+      <c r="A98" s="10"/>
+      <c r="B98" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" s="4" customFormat="1" spans="1:2">
+      <c r="A99" s="10"/>
+      <c r="B99" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A64:A74"/>
+    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="A87:A99"/>
+    <mergeCell ref="C3:C13"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C26:C37"/>
+    <mergeCell ref="C40:C48"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="58.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>